--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R69dfc074cad64941"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R33bcf0f5fb4a401f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R430fa216f34c4ea4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R2404c74c54f047c6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -199,7 +199,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R51e14b213500429e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15d40e41a5ee4a20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2003,6 +2003,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4650c6d3e6a84e25"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3c4913374a0846cc"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R430fa216f34c4ea4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R2404c74c54f047c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R3310fb09394c4f9a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R9e27f648db994533"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -199,7 +199,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15d40e41a5ee4a20"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re7c83914a19d449e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2003,6 +2003,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3c4913374a0846cc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra81a1c41b16e4682"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R3310fb09394c4f9a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R9e27f648db994533"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rcb2633d5cfa4423e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R7b531a9561454cdc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -199,7 +199,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re7c83914a19d449e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd656dbf4093c4f15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2003,6 +2003,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra81a1c41b16e4682"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5f7ab477ef39465f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rcb2633d5cfa4423e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R7b531a9561454cdc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R6e6c4698de974c7f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R23efa76757644902"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -199,7 +199,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd656dbf4093c4f15"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R92f8154c9db8429b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2003,6 +2003,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5f7ab477ef39465f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R05658652e2544408"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R6e6c4698de974c7f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R23efa76757644902"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rba5b5ec2f75d40b2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R7049fb0ff3df4657"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -199,7 +199,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R92f8154c9db8429b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R015ed61280e744db"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2003,6 +2003,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R05658652e2544408"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbc6e29ceb7844c10"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rba5b5ec2f75d40b2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R7049fb0ff3df4657"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R26ec4351c77e42c2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Raad960d65bba48e4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -199,7 +199,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R015ed61280e744db"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra4d27706603541d3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2003,6 +2003,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbc6e29ceb7844c10"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rad7c6231eb084715"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R26ec4351c77e42c2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Raad960d65bba48e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R8bf2025117884bae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Rbf6970b04a2c40c7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -199,7 +199,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra4d27706603541d3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R99a940a2812e4f2b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2003,6 +2003,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rad7c6231eb084715"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9789a4ee342d4b53"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R8bf2025117884bae"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Rbf6970b04a2c40c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rb20f44a116474acd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R77b0dbce39f64d6e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -199,7 +199,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R99a940a2812e4f2b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f822378584c4a47"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2003,6 +2003,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9789a4ee342d4b53"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf4fc2840763043b3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rb20f44a116474acd"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R77b0dbce39f64d6e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rcf5412245c404ce5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R3489378be39e4783"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -199,7 +199,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f822378584c4a47"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf0d0de6e53549f9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2003,6 +2003,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf4fc2840763043b3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R20aba2bf925c4911"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rcf5412245c404ce5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R3489378be39e4783"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R385346d825694770"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R95b495dec9224450"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -199,7 +199,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf0d0de6e53549f9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf9a216f5963b46d6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2003,6 +2003,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R20aba2bf925c4911"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfbf88f8b3ec04e6e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R385346d825694770"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R95b495dec9224450"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rd20447fad4784994"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R2b6b7e2630ea4b61"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -199,7 +199,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf9a216f5963b46d6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R76b83002a09e438c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2003,6 +2003,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfbf88f8b3ec04e6e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0b87402a35634580"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rd20447fad4784994"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R2b6b7e2630ea4b61"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R03a538db06c74759"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R96dafdf7a36b41bc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -199,7 +199,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R76b83002a09e438c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8df83b5f28144b29"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2003,6 +2003,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0b87402a35634580"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rca01d1c2e7024211"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R03a538db06c74759"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R96dafdf7a36b41bc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R62087efde0bc4fff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R777b9c81a55b4002"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -108,6 +108,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>age</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Persons'!$A$2:$A$101</c:f>
@@ -199,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8df83b5f28144b29"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Red2a5e8c64dc4eb4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2003,6 +2006,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rca01d1c2e7024211"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R530ba68f3b2242c6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R62087efde0bc4fff"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R777b9c81a55b4002"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R21d55e681d814551"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R78ba18bd6a7d409b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Red2a5e8c64dc4eb4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R04c8b910f4654f00"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2006,6 +2006,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R530ba68f3b2242c6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R79e5598640804fdf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R21d55e681d814551"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R78ba18bd6a7d409b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R3b0c2b588b0b43ae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R3a889eddf4934e8d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R04c8b910f4654f00"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R064004ef1d804dee"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2006,6 +2006,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R79e5598640804fdf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb162584ac01b4b1a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R3b0c2b588b0b43ae"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R3a889eddf4934e8d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R8f7cab8e3c9b4804"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Re8870b70b7c344fa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R064004ef1d804dee"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra0bdbe0ceb18459f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2006,6 +2006,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb162584ac01b4b1a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R991f7fffbac84fea"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R8f7cab8e3c9b4804"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Re8870b70b7c344fa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rfdb356df30404e74"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R1130b78f6a1846ea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra0bdbe0ceb18459f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0e08696e5ad041db"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2006,6 +2006,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R991f7fffbac84fea"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R987e833901c14463"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rfdb356df30404e74"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R1130b78f6a1846ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rc7cadace689e48d6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Re5568adebba54710"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0e08696e5ad041db"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ree356d03441d4cf6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2006,6 +2006,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R987e833901c14463"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc7fe76002f694899"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/63_JsonToWorkbookBarChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rc7cadace689e48d6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="Re5568adebba54710"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R1949f0cf590b49dd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age Distribution" sheetId="2" r:id="R68c6632f33cc4119"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ree356d03441d4cf6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf0ec051b28b84898"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2006,6 +2006,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc7fe76002f694899"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf1f356ee649d4431"/>
 </x:worksheet>
 </file>